--- a/testbuild/ValueSet-NoDomainVitalSignsBloodpressureBodySiteValueSet.xlsx
+++ b/testbuild/ValueSet-NoDomainVitalSignsBloodpressureBodySiteValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T07:53:00+00:00</t>
+    <t>2025-06-19T08:13:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,7 +90,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>This resource includes content from SNOMED Clinical Terms® (SNOMED CT®) which is copyright of the International Health Terminology Standards Development Organisation (IHTSDO). Implementers of these specifications must have the appropriate SNOMED CT Affiliate license - for more information contact http://www.snomed.org/snomed-ct/get-snomed-ct or info@snomed.org</t>
+    <t>This value set includes content from SNOMED CT, which is copyright © 2002+ International Health Terminology Standards Development Organisation (IHTSDO), and distributed by agreement between IHTSDO and HL7. Implementer use of SNOMED CT is not covered by this agreement</t>
   </si>
   <si>
     <t>Immutable</t>

--- a/testbuild/ValueSet-NoDomainVitalSignsBloodpressureBodySiteValueSet.xlsx
+++ b/testbuild/ValueSet-NoDomainVitalSignsBloodpressureBodySiteValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T08:13:38+00:00</t>
+    <t>2025-06-19T12:23:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/testbuild/ValueSet-NoDomainVitalSignsBloodpressureBodySiteValueSet.xlsx
+++ b/testbuild/ValueSet-NoDomainVitalSignsBloodpressureBodySiteValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T12:23:32+00:00</t>
+    <t>2025-06-19T12:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/testbuild/ValueSet-NoDomainVitalSignsBloodpressureBodySiteValueSet.xlsx
+++ b/testbuild/ValueSet-NoDomainVitalSignsBloodpressureBodySiteValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T12:37:09+00:00</t>
+    <t>2025-06-19T12:46:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/testbuild/ValueSet-NoDomainVitalSignsBloodpressureBodySiteValueSet.xlsx
+++ b/testbuild/ValueSet-NoDomainVitalSignsBloodpressureBodySiteValueSet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>Property</t>
   </si>
@@ -60,16 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T12:46:29+00:00</t>
+    <t>2025-06-19T16:12:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
+    <t>HL7 Norway</t>
+  </si>
+  <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>null (http://hl7.org/fhir)</t>
+    <t>HL7 Norway (http://www.hl7.no)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -392,52 +395,54 @@
       <c r="A9" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -459,122 +464,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/testbuild/ValueSet-NoDomainVitalSignsBloodpressureBodySiteValueSet.xlsx
+++ b/testbuild/ValueSet-NoDomainVitalSignsBloodpressureBodySiteValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T16:12:12+00:00</t>
+    <t>2025-06-19T16:32:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/testbuild/ValueSet-NoDomainVitalSignsBloodpressureBodySiteValueSet.xlsx
+++ b/testbuild/ValueSet-NoDomainVitalSignsBloodpressureBodySiteValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T16:32:27+00:00</t>
+    <t>2025-06-19T16:54:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
